--- a/Results/Categorization/plsa-partial-ner-w2v-money.xlsx
+++ b/Results/Categorization/plsa-partial-ner-w2v-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="1792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="1797">
   <si>
     <t>id</t>
   </si>
@@ -4036,7 +4036,7 @@
     <t>FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|SERVICE|FOOD|FOOD</t>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>SERVICE|PRICES</t>
@@ -4078,7 +4078,10 @@
     <t>AMBIENCE|PRICES|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|FOOD|PRICES</t>
+    <t>FOOD||AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|PRICES</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD</t>
@@ -4129,12 +4132,18 @@
     <t>AMBIENCE|AMBIENCE</t>
   </si>
   <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
     <t>FOOD|SERVICE</t>
   </si>
   <si>
     <t>SERVICE|AMBIENCE|FOOD</t>
   </si>
   <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
     <t>AMBIENCE|FOOD|AMBIENCE</t>
   </si>
   <si>
@@ -4180,12 +4189,15 @@
     <t>SERVICE|PRICES|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+    <t>FOOD|FOOD|PRICES|FOOD</t>
   </si>
   <si>
     <t>SERVICE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
+    <t>FOOD|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>SERVICE|FOOD|FOOD</t>
   </si>
   <si>
@@ -4195,6 +4207,9 @@
     <t>SERVICE|PRICES|PRICES|PRICES</t>
   </si>
   <si>
+    <t>AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
     <t>SERVICE|AMBIENCE|PRICES|FOOD</t>
   </si>
   <si>
@@ -4303,21 +4318,18 @@
     <t>AMBIENCE|PRICES|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD</t>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|SERVICE|AMBIENCE</t>
   </si>
   <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
     <t>SERVICE|SERVICE|PRICES</t>
   </si>
   <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
     <t>AMBIENCE|PRICES|AMBIENCE</t>
   </si>
   <si>
@@ -4345,9 +4357,6 @@
     <t>|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
     <t>FOOD|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
@@ -4357,6 +4366,9 @@
     <t>FOOD|PRICES|FOOD</t>
   </si>
   <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
     <t>SERVICE|AMBIENCE|FOOD|PRICES|FOOD</t>
   </si>
   <si>
@@ -4378,10 +4390,7 @@
     <t>SERVICE|PRICES|FOOD|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD</t>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|PRICES|FOOD|PRICES|PRICES</t>
@@ -4393,12 +4402,12 @@
     <t>SERVICE|SERVICE|FOOD|PRICES|PRICES</t>
   </si>
   <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>FOOD|PRICES|FOOD|PRICES</t>
   </si>
   <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
     <t>place|rude|staff|like</t>
   </si>
   <si>
@@ -4411,7 +4420,7 @@
     <t>good|wine</t>
   </si>
   <si>
-    <t>cart|attendant|lotus|leaf</t>
+    <t>cart|attendant|lotus|leaf|rice|rice</t>
   </si>
   <si>
     <t>rude</t>
@@ -4462,7 +4471,7 @@
     <t>menu|worth</t>
   </si>
   <si>
-    <t>food|$6</t>
+    <t>food|$6!-</t>
   </si>
   <si>
     <t>great|dish</t>
@@ -4483,10 +4492,10 @@
     <t>nice|best|would</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
-  </si>
-  <si>
-    <t>service|great|great|great|price|even|food|reasonable</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
+  </si>
+  <si>
+    <t>service|great|great|great|price|food|reasonable</t>
   </si>
   <si>
     <t>lava|cake|dessert</t>
@@ -4549,7 +4558,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20,</t>
+    <t>toppings|$20!-|$3!-</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4561,6 +4570,9 @@
     <t>service|great|pizza</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
     <t>place|food</t>
   </si>
   <si>
@@ -4606,10 +4618,10 @@
     <t>make</t>
   </si>
   <si>
-    <t>moules|ravioli</t>
-  </si>
-  <si>
-    <t>price|$8.00...just</t>
+    <t>moules|lobster|ravioli</t>
+  </si>
+  <si>
+    <t>price|$8.00!-</t>
   </si>
   <si>
     <t>price|wine|well|always</t>
@@ -4639,9 +4651,6 @@
     <t>tuna|wasabe|potatoes</t>
   </si>
   <si>
-    <t>even|atmosphere</t>
-  </si>
-  <si>
     <t>service|great|great|food</t>
   </si>
   <si>
@@ -4654,7 +4663,7 @@
     <t>staff|best|wait</t>
   </si>
   <si>
-    <t>food|restaurant|best</t>
+    <t>food|restaurant|best|salad</t>
   </si>
   <si>
     <t>would|would</t>
@@ -4675,7 +4684,7 @@
     <t>though|restaurant</t>
   </si>
   <si>
-    <t>though|even|restaurant|always</t>
+    <t>though|restaurant|always</t>
   </si>
   <si>
     <t>good|though|food</t>
@@ -4684,6 +4693,9 @@
     <t>great|decor</t>
   </si>
   <si>
+    <t>atmosphere|salad</t>
+  </si>
+  <si>
     <t>food|food|delicious</t>
   </si>
   <si>
@@ -4699,13 +4711,16 @@
     <t>workers|bagel|cream|cheese</t>
   </si>
   <si>
-    <t>roll|mayo</t>
+    <t>lobster|roll|mayo|lobster</t>
+  </si>
+  <si>
+    <t>pizza|salad</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>scallion|pancakes|dumplings|nothing</t>
+    <t>scallion|pancakes|dumplings</t>
   </si>
   <si>
     <t>service|good|restaurant</t>
@@ -4723,7 +4738,10 @@
     <t>food|restaurant|delicious</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>delicious|salad</t>
   </si>
   <si>
     <t>like|atmosphere</t>
@@ -4732,7 +4750,7 @@
     <t>good|though</t>
   </si>
   <si>
-    <t>great|though</t>
+    <t>great|though|salad</t>
   </si>
   <si>
     <t>good|really</t>
@@ -4744,7 +4762,7 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>food|menu|$18</t>
+    <t>food|menu|$18!-</t>
   </si>
   <si>
     <t>service|great|price|food</t>
@@ -4753,237 +4771,240 @@
     <t>atmosphere|wait</t>
   </si>
   <si>
-    <t>price|reasonable|dish|$3-6</t>
+    <t>price|reasonable|dish|$3-6!-</t>
   </si>
   <si>
     <t>great|well</t>
   </si>
   <si>
+    <t>nice|salad</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>place|food|staff|delicious</t>
+  </si>
+  <si>
+    <t>even|make</t>
+  </si>
+  <si>
+    <t>service|good|food</t>
+  </si>
+  <si>
+    <t>service|service|good|good|food</t>
+  </si>
+  <si>
+    <t>place|wine|atmosphere|dish</t>
+  </si>
+  <si>
+    <t>place|good|pizza|nice</t>
+  </si>
+  <si>
+    <t>though|delicious</t>
+  </si>
+  <si>
+    <t>bombay|beer</t>
+  </si>
+  <si>
+    <t>place|nice</t>
+  </si>
+  <si>
+    <t>like|like</t>
+  </si>
+  <si>
+    <t>service|food|restaurant</t>
+  </si>
+  <si>
+    <t>menu|dish</t>
+  </si>
+  <si>
+    <t>place|good</t>
+  </si>
+  <si>
+    <t>place|service|pizza|wine|really</t>
+  </si>
+  <si>
+    <t>price|restaurant|wine|menu</t>
+  </si>
+  <si>
+    <t>wine|$70!-|$30!-</t>
+  </si>
+  <si>
+    <t>service|price|would</t>
+  </si>
+  <si>
+    <t>food|make</t>
+  </si>
+  <si>
+    <t>meals|bland|rosemary|orange|flavoring</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>place|nice|staff|would|wait|never</t>
+  </si>
+  <si>
+    <t>someone|dessert</t>
+  </si>
+  <si>
+    <t>service|never|delicious</t>
+  </si>
+  <si>
+    <t>tuna|tartar|appetizer</t>
+  </si>
+  <si>
+    <t>place|service</t>
+  </si>
+  <si>
+    <t>service|great|great|food|restaurant|atmosphere</t>
+  </si>
+  <si>
+    <t>dining|room|music</t>
+  </si>
+  <si>
+    <t>service|staff|menu</t>
+  </si>
+  <si>
+    <t>service|staff</t>
+  </si>
+  <si>
+    <t>place|service|great|special</t>
+  </si>
+  <si>
+    <t>great|good|price|price|food|food|food|food|food|like|menu</t>
+  </si>
+  <si>
+    <t>really|make</t>
+  </si>
+  <si>
+    <t>service|though|food|wait</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>ambiance|boot</t>
+  </si>
+  <si>
+    <t>service|great|nice</t>
+  </si>
+  <si>
+    <t>like|atmosphere|special</t>
+  </si>
+  <si>
+    <t>staff|well</t>
+  </si>
+  <si>
+    <t>service|price|food</t>
+  </si>
+  <si>
+    <t>price|food|wine</t>
+  </si>
+  <si>
+    <t>secret|room</t>
+  </si>
+  <si>
+    <t>great|staff</t>
+  </si>
+  <si>
+    <t>service|great|always</t>
+  </si>
+  <si>
+    <t>rude|wait</t>
+  </si>
+  <si>
+    <t>place|service|price|price|food|like|make|worth</t>
+  </si>
+  <si>
+    <t>best|dish</t>
+  </si>
+  <si>
+    <t>service|though|nice|decor</t>
+  </si>
+  <si>
+    <t>though|nice|staff|wait</t>
+  </si>
+  <si>
+    <t>service|rude</t>
+  </si>
+  <si>
+    <t>rude|restaurant</t>
+  </si>
+  <si>
+    <t>like|$7!-</t>
+  </si>
+  <si>
+    <t>seats|wall|benches</t>
+  </si>
+  <si>
+    <t>great|nice|staff</t>
+  </si>
+  <si>
+    <t>friendly|staff|wait</t>
+  </si>
+  <si>
+    <t>service|good|good</t>
+  </si>
+  <si>
+    <t>price|restaurant</t>
+  </si>
+  <si>
+    <t>good|price|though|even|food</t>
+  </si>
+  <si>
+    <t>good|price|though|$24!-</t>
+  </si>
+  <si>
+    <t>special|wait</t>
+  </si>
+  <si>
+    <t>food|nice|wait</t>
+  </si>
+  <si>
+    <t>great|$10!-</t>
+  </si>
+  <si>
+    <t>price|wine</t>
+  </si>
+  <si>
+    <t>great|atmosphere|would</t>
+  </si>
+  <si>
+    <t>place|great|great|good|food</t>
+  </si>
+  <si>
+    <t>staff|like|make|wait</t>
+  </si>
+  <si>
+    <t>service|wait</t>
+  </si>
+  <si>
+    <t>good|wait|wait</t>
+  </si>
+  <si>
+    <t>place|great|good|staff|would</t>
+  </si>
+  <si>
+    <t>great|price|food|really</t>
+  </si>
+  <si>
+    <t>service|restaurant</t>
+  </si>
+  <si>
+    <t>gentleman|manager|table|smile|order</t>
+  </si>
+  <si>
+    <t>great|price|food</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>place|food|staff|delicious</t>
-  </si>
-  <si>
-    <t>even|make</t>
-  </si>
-  <si>
-    <t>service|good|food</t>
-  </si>
-  <si>
-    <t>service|service|good|good|food</t>
-  </si>
-  <si>
-    <t>place|wine|atmosphere|dish</t>
-  </si>
-  <si>
-    <t>place|good|pizza|nice</t>
-  </si>
-  <si>
-    <t>though|delicious</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>place|nice</t>
-  </si>
-  <si>
-    <t>like|like</t>
-  </si>
-  <si>
-    <t>service|food|restaurant</t>
-  </si>
-  <si>
-    <t>menu|dish</t>
-  </si>
-  <si>
-    <t>place|good</t>
-  </si>
-  <si>
-    <t>place|service|pizza|wine|really</t>
-  </si>
-  <si>
-    <t>price|restaurant|wine|menu</t>
-  </si>
-  <si>
-    <t>wine|$70+</t>
-  </si>
-  <si>
-    <t>service|price|would</t>
-  </si>
-  <si>
-    <t>food|make</t>
-  </si>
-  <si>
-    <t>meals|bland|rosemary|orange|flavoring</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>place|nice|staff|would|wait|never</t>
-  </si>
-  <si>
-    <t>someone|dessert</t>
-  </si>
-  <si>
-    <t>service|never|delicious</t>
-  </si>
-  <si>
-    <t>tuna|tartar|appetizer</t>
-  </si>
-  <si>
-    <t>place|service</t>
-  </si>
-  <si>
-    <t>service|great|great|food|restaurant|atmosphere</t>
-  </si>
-  <si>
-    <t>dining|room|music</t>
-  </si>
-  <si>
-    <t>service|staff|menu</t>
-  </si>
-  <si>
-    <t>service|staff</t>
-  </si>
-  <si>
-    <t>place|service|great|special</t>
-  </si>
-  <si>
-    <t>great|good|price|price|food|food|food|food|food|like|menu</t>
-  </si>
-  <si>
-    <t>really|make</t>
-  </si>
-  <si>
-    <t>service|though|food|wait</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>ambiance|boot</t>
-  </si>
-  <si>
-    <t>service|great|nice</t>
-  </si>
-  <si>
-    <t>like|atmosphere|special</t>
-  </si>
-  <si>
-    <t>staff|well</t>
-  </si>
-  <si>
-    <t>service|price|food</t>
-  </si>
-  <si>
-    <t>price|food|wine</t>
-  </si>
-  <si>
-    <t>secret|room</t>
-  </si>
-  <si>
-    <t>great|staff</t>
-  </si>
-  <si>
-    <t>service|great|always</t>
-  </si>
-  <si>
-    <t>rude|wait</t>
-  </si>
-  <si>
-    <t>place|service|price|price|food|like|make|worth</t>
-  </si>
-  <si>
-    <t>best|dish</t>
-  </si>
-  <si>
-    <t>service|though|nice|decor</t>
-  </si>
-  <si>
-    <t>though|nice|staff|wait</t>
-  </si>
-  <si>
-    <t>service|rude</t>
-  </si>
-  <si>
-    <t>rude|restaurant</t>
-  </si>
-  <si>
-    <t>like|$7)</t>
-  </si>
-  <si>
-    <t>seats|wall|benches</t>
-  </si>
-  <si>
-    <t>great|nice|staff</t>
-  </si>
-  <si>
-    <t>friendly|staff|wait</t>
-  </si>
-  <si>
-    <t>service|good|good</t>
-  </si>
-  <si>
-    <t>price|restaurant</t>
-  </si>
-  <si>
-    <t>good|price|though|even|food</t>
-  </si>
-  <si>
-    <t>good|price|though|$24</t>
-  </si>
-  <si>
-    <t>special|wait</t>
-  </si>
-  <si>
-    <t>food|nice|wait</t>
-  </si>
-  <si>
-    <t>great|$10.</t>
-  </si>
-  <si>
-    <t>price|wine</t>
-  </si>
-  <si>
-    <t>great|atmosphere|would</t>
-  </si>
-  <si>
-    <t>place|great|great|good|food</t>
-  </si>
-  <si>
-    <t>staff|like|make|wait</t>
-  </si>
-  <si>
-    <t>service|wait</t>
-  </si>
-  <si>
-    <t>good|wait|wait</t>
-  </si>
-  <si>
-    <t>place|great|good|staff|would</t>
-  </si>
-  <si>
-    <t>great|price|food|really</t>
-  </si>
-  <si>
-    <t>service|restaurant</t>
-  </si>
-  <si>
-    <t>gentleman|table|smile|order</t>
-  </si>
-  <si>
-    <t>great|price|food</t>
-  </si>
-  <si>
     <t>nice|staff|really</t>
   </si>
   <si>
@@ -4999,7 +5020,7 @@
     <t>garden|area|herb|garden</t>
   </si>
   <si>
-    <t>place|special|money.</t>
+    <t>place|special</t>
   </si>
   <si>
     <t>nice|wait</t>
@@ -5011,22 +5032,19 @@
     <t>price|pizza|even</t>
   </si>
   <si>
-    <t>wait|money</t>
-  </si>
-  <si>
     <t>place|great</t>
   </si>
   <si>
     <t>place|price|worth</t>
   </si>
   <si>
-    <t>cheese|sandwich|business</t>
+    <t>cheese|sandwich|manager|business</t>
   </si>
   <si>
     <t>place|even|well</t>
   </si>
   <si>
-    <t>great|like</t>
+    <t>great|like|100 dollar!-</t>
   </si>
   <si>
     <t>great|worth</t>
@@ -5038,13 +5056,13 @@
     <t>price|food</t>
   </si>
   <si>
-    <t>staff|wait|she's-way-cuter-than-me-that-b@#$*</t>
+    <t>staff|wait|$*!-</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50</t>
+    <t>great|great|$8.50!-</t>
   </si>
   <si>
     <t>good|price|make|reasonable</t>
@@ -5092,9 +5110,6 @@
     <t>place|great|great|price|food|decor</t>
   </si>
   <si>
-    <t>place|food|money.</t>
-  </si>
-  <si>
     <t>great|good|price|food|wine|reasonable</t>
   </si>
   <si>
@@ -5107,7 +5122,7 @@
     <t>good|atmosphere</t>
   </si>
   <si>
-    <t>jukebox|everything|opera|strokes</t>
+    <t>jukebox|opera|strokes</t>
   </si>
   <si>
     <t>drinks|half</t>
@@ -5116,7 +5131,7 @@
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>delight|seating|yorkie</t>
+    <t>location|delight|seating|yorkie</t>
   </si>
   <si>
     <t>great|price|food|reasonable</t>
@@ -5125,7 +5140,7 @@
     <t>good|price|food</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>service|great|good|price|food</t>
@@ -5146,16 +5161,16 @@
     <t>price|food|nice|decor|reasonable</t>
   </si>
   <si>
-    <t>sushi|$20</t>
-  </si>
-  <si>
-    <t>price|$15....</t>
+    <t>sushi|$20!-</t>
+  </si>
+  <si>
+    <t>price|$15!-</t>
   </si>
   <si>
     <t>restaurant|really</t>
   </si>
   <si>
-    <t>good|though|$60</t>
+    <t>good|though|$60!-</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5170,19 +5185,19 @@
     <t>though|restaurant|nice</t>
   </si>
   <si>
-    <t>dinner|$400.00</t>
+    <t>dinner|$400.00!-</t>
   </si>
   <si>
     <t>nice|really</t>
   </si>
   <si>
-    <t>plate|guacamole|$11</t>
+    <t>plate|guacamole|$11!-</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8</t>
+    <t>water|table|voss|bottles|water|piece|$8!-</t>
   </si>
   <si>
     <t>good|price|friendly|food</t>
@@ -5206,10 +5221,10 @@
     <t>nice|atmosphere|make</t>
   </si>
   <si>
-    <t>service|price|dish|$10.</t>
-  </si>
-  <si>
-    <t>wine|dinner|$500</t>
+    <t>service|price|dish|$10!-</t>
+  </si>
+  <si>
+    <t>wine|dinner|$500!-</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5221,19 +5236,16 @@
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
-  </si>
-  <si>
-    <t>service|$500.</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>drinks|$14</t>
-  </si>
-  <si>
-    <t>would|dinner|$55</t>
+    <t>environment|lot|guys|trophy|wives|escorts</t>
+  </si>
+  <si>
+    <t>service|$500!-</t>
+  </si>
+  <si>
+    <t>drinks|$14!-</t>
+  </si>
+  <si>
+    <t>would|dinner|$55!-</t>
   </si>
   <si>
     <t>good|food|would|dinner</t>
@@ -5242,13 +5254,13 @@
     <t>would|dinner</t>
   </si>
   <si>
-    <t>restaurant|never|money.</t>
-  </si>
-  <si>
-    <t>place|price|restaurant|would|$25),</t>
-  </si>
-  <si>
-    <t>place|food|$</t>
+    <t>restaurant|never</t>
+  </si>
+  <si>
+    <t>place|price|restaurant|would|$25!-</t>
+  </si>
+  <si>
+    <t>place|food|$!-</t>
   </si>
   <si>
     <t>worth</t>
@@ -5257,34 +5269,37 @@
     <t>place|dinner</t>
   </si>
   <si>
-    <t>stone|bowl|$2</t>
-  </si>
-  <si>
-    <t>menu|$29</t>
+    <t>stone|bowl|$2!-</t>
+  </si>
+  <si>
+    <t>menu|$29!-</t>
   </si>
   <si>
     <t>great|good|price|reasonable</t>
   </si>
   <si>
-    <t>service|rude|even|well|$500</t>
-  </si>
-  <si>
-    <t>service|great|good</t>
+    <t>service|rude|even|well|$500!-</t>
+  </si>
+  <si>
+    <t>service|great|good|salad</t>
   </si>
   <si>
     <t>good|price|food|would</t>
   </si>
   <si>
-    <t>restaurant|never|$24</t>
+    <t>restaurant|never|$24!-</t>
   </si>
   <si>
     <t>menu|would|reasonable</t>
   </si>
   <si>
-    <t>service|$60</t>
+    <t>service|$60!-</t>
   </si>
   <si>
     <t>place|price</t>
+  </si>
+  <si>
+    <t>price|salad</t>
   </si>
   <si>
     <t>negative</t>
@@ -5796,10 +5811,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="H2" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5825,7 +5840,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5848,10 +5863,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="H4" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5874,10 +5889,10 @@
         <v>1285</v>
       </c>
       <c r="G5" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="H5" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5900,10 +5915,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="H6" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5926,10 +5941,10 @@
         <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="H7" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5952,10 +5967,10 @@
         <v>1276</v>
       </c>
       <c r="G8" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="H8" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5978,10 +5993,10 @@
         <v>1341</v>
       </c>
       <c r="G9" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="H9" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6004,10 +6019,10 @@
         <v>1342</v>
       </c>
       <c r="G10" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="H10" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6030,10 +6045,10 @@
         <v>1278</v>
       </c>
       <c r="G11" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="H11" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6059,7 +6074,7 @@
         <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6082,10 +6097,10 @@
         <v>1278</v>
       </c>
       <c r="G13" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="H13" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6108,10 +6123,10 @@
         <v>1343</v>
       </c>
       <c r="G14" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="H14" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6134,10 +6149,10 @@
         <v>1344</v>
       </c>
       <c r="G15" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="H15" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6160,10 +6175,10 @@
         <v>1345</v>
       </c>
       <c r="G16" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="H16" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6186,10 +6201,10 @@
         <v>1343</v>
       </c>
       <c r="G17" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="H17" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6212,10 +6227,10 @@
         <v>1346</v>
       </c>
       <c r="G18" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="H18" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6238,7 +6253,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6261,10 +6276,10 @@
         <v>1346</v>
       </c>
       <c r="G20" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="H20" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6290,7 +6305,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6316,7 +6331,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6339,10 +6354,10 @@
         <v>1347</v>
       </c>
       <c r="G23" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="H23" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6365,10 +6380,10 @@
         <v>1343</v>
       </c>
       <c r="G24" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="H24" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6394,7 +6409,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6420,7 +6435,7 @@
         <v>968</v>
       </c>
       <c r="H26" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6446,7 +6461,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6466,10 +6481,10 @@
         <v>1278</v>
       </c>
       <c r="G28" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="H28" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6492,10 +6507,10 @@
         <v>1348</v>
       </c>
       <c r="G29" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="H29" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6518,10 +6533,10 @@
         <v>1349</v>
       </c>
       <c r="G30" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="H30" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6544,10 +6559,10 @@
         <v>1350</v>
       </c>
       <c r="G31" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="H31" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6570,10 +6585,10 @@
         <v>1350</v>
       </c>
       <c r="G32" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="H32" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6596,10 +6611,10 @@
         <v>1343</v>
       </c>
       <c r="G33" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="H33" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6622,10 +6637,10 @@
         <v>1351</v>
       </c>
       <c r="G34" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="H34" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6648,10 +6663,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H35" t="s">
-        <v>1765</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6674,10 +6689,10 @@
         <v>1346</v>
       </c>
       <c r="G36" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="H36" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6700,10 +6715,10 @@
         <v>1285</v>
       </c>
       <c r="G37" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="H37" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6726,10 +6741,10 @@
         <v>1352</v>
       </c>
       <c r="G38" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="H38" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6752,10 +6767,10 @@
         <v>1353</v>
       </c>
       <c r="G39" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="H39" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6775,13 +6790,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1344</v>
+        <v>1354</v>
       </c>
       <c r="G40" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="H40" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6801,13 +6816,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G41" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="H41" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6827,13 +6842,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G42" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="H42" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6853,13 +6868,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G43" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="H43" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6885,7 +6900,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6911,7 +6926,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1766</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6937,7 +6952,7 @@
         <v>933</v>
       </c>
       <c r="H46" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6960,10 +6975,10 @@
         <v>1339</v>
       </c>
       <c r="G47" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="H47" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6983,13 +6998,13 @@
         <v>1279</v>
       </c>
       <c r="F48" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G48" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="H48" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7009,13 +7024,13 @@
         <v>1282</v>
       </c>
       <c r="F49" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G49" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="H49" t="s">
-        <v>1768</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7038,10 +7053,10 @@
         <v>1294</v>
       </c>
       <c r="G50" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="H50" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7061,13 +7076,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G51" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="H51" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7087,13 +7102,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G52" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="H52" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7113,13 +7128,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G53" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="H53" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7142,10 +7157,10 @@
         <v>1339</v>
       </c>
       <c r="G54" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="H54" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7165,13 +7180,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G55" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="H55" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7191,13 +7206,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G56" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="H56" t="s">
-        <v>1770</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7217,13 +7232,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G57" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="H57" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7243,13 +7258,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G58" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="H58" t="s">
-        <v>1771</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7269,13 +7284,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G59" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="H59" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7298,10 +7313,10 @@
         <v>1276</v>
       </c>
       <c r="G60" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="H60" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7327,7 +7342,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7347,13 +7362,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G62" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="H62" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7373,13 +7388,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="G63" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="H63" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7399,13 +7414,13 @@
         <v>1278</v>
       </c>
       <c r="F64" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="G64" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="H64" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7428,10 +7443,10 @@
         <v>1346</v>
       </c>
       <c r="G65" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="H65" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7451,13 +7466,13 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G66" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="H66" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7480,10 +7495,10 @@
         <v>1352</v>
       </c>
       <c r="G67" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="H67" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7509,7 +7524,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7529,13 +7544,13 @@
         <v>1295</v>
       </c>
       <c r="F69" t="s">
-        <v>1350</v>
+        <v>1372</v>
       </c>
       <c r="G69" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="H69" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7558,10 +7573,10 @@
         <v>1278</v>
       </c>
       <c r="G70" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="H70" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7587,7 +7602,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7607,13 +7622,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G72" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="H72" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7636,10 +7651,10 @@
         <v>1342</v>
       </c>
       <c r="G73" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="H73" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7659,13 +7674,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="G74" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="H74" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7691,7 +7706,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7711,13 +7726,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1375</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1518</v>
       </c>
       <c r="H76" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7740,10 +7755,10 @@
         <v>1294</v>
       </c>
       <c r="G77" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="H77" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7766,10 +7781,10 @@
         <v>1343</v>
       </c>
       <c r="G78" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="H78" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7792,10 +7807,10 @@
         <v>1339</v>
       </c>
       <c r="G79" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="H79" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7815,13 +7830,13 @@
         <v>1277</v>
       </c>
       <c r="F80" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="G80" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="H80" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7841,13 +7856,13 @@
         <v>1278</v>
       </c>
       <c r="F81" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G81" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="H81" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7867,13 +7882,13 @@
         <v>1297</v>
       </c>
       <c r="F82" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="G82" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="H82" t="s">
-        <v>1771</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7899,7 +7914,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7925,7 +7940,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7948,10 +7963,10 @@
         <v>1278</v>
       </c>
       <c r="G85" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="H85" t="s">
-        <v>1773</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7974,10 +7989,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="H86" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8000,10 +8015,10 @@
         <v>1352</v>
       </c>
       <c r="G87" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="H87" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8023,13 +8038,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="G88" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="H88" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8052,10 +8067,10 @@
         <v>1285</v>
       </c>
       <c r="G89" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="H89" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8081,7 +8096,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8101,13 +8116,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="G91" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="H91" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8127,13 +8142,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G92" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="H92" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8153,13 +8168,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G93" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="H93" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8179,13 +8194,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G94" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="H94" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8205,13 +8220,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="G95" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="H95" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8234,10 +8249,10 @@
         <v>1294</v>
       </c>
       <c r="G96" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="H96" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8257,13 +8272,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1339</v>
+        <v>1356</v>
       </c>
       <c r="G97" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="H97" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8286,10 +8301,10 @@
         <v>1276</v>
       </c>
       <c r="G98" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="H98" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8309,13 +8324,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="G99" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="H99" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8335,13 +8350,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="G100" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="H100" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8364,10 +8379,10 @@
         <v>1278</v>
       </c>
       <c r="G101" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="H101" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8390,10 +8405,10 @@
         <v>1352</v>
       </c>
       <c r="G102" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="H102" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8419,7 +8434,7 @@
         <v>968</v>
       </c>
       <c r="H103" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8442,10 +8457,10 @@
         <v>1339</v>
       </c>
       <c r="G104" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="H104" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8471,7 +8486,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8491,13 +8506,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="G106" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="H106" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8517,13 +8532,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G107" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="H107" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8543,13 +8558,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="G108" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="H108" t="s">
-        <v>1775</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8569,10 +8584,10 @@
         <v>1298</v>
       </c>
       <c r="G109" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="H109" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8595,10 +8610,10 @@
         <v>1285</v>
       </c>
       <c r="G110" t="s">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="H110" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8621,10 +8636,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="H111" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8644,13 +8659,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="G112" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="H112" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8670,13 +8685,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1352</v>
+        <v>1285</v>
       </c>
       <c r="G113" t="s">
-        <v>1541</v>
+        <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8702,7 +8717,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8722,13 +8737,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="G115" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="H115" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8748,13 +8763,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G116" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="H116" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8774,13 +8789,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="G117" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="H117" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8800,13 +8815,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="G118" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="H118" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8826,13 +8841,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1377</v>
+        <v>1391</v>
       </c>
       <c r="G119" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="H119" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8858,7 +8873,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8884,7 +8899,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8910,7 +8925,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8936,7 +8951,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8956,13 +8971,13 @@
         <v>1278</v>
       </c>
       <c r="F124" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="G124" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="H124" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8985,10 +9000,10 @@
         <v>1278</v>
       </c>
       <c r="G125" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="H125" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9014,7 +9029,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9037,10 +9052,10 @@
         <v>1278</v>
       </c>
       <c r="G127" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="H127" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9060,13 +9075,13 @@
         <v>1276</v>
       </c>
       <c r="F128" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="G128" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="H128" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9086,13 +9101,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G129" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="H129" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9112,13 +9127,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G130" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="H130" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9141,10 +9156,10 @@
         <v>1339</v>
       </c>
       <c r="G131" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="H131" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9164,13 +9179,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1388</v>
+        <v>1338</v>
       </c>
       <c r="G132" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="H132" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9190,13 +9205,13 @@
         <v>1277</v>
       </c>
       <c r="F133" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G133" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="H133" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9216,13 +9231,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G134" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="H134" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9242,13 +9257,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1285</v>
+        <v>1343</v>
       </c>
       <c r="G135" t="s">
-        <v>1065</v>
+        <v>1559</v>
       </c>
       <c r="H135" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9271,10 +9286,10 @@
         <v>1294</v>
       </c>
       <c r="G136" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="H136" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9294,13 +9309,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G137" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="H137" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9323,10 +9338,10 @@
         <v>1352</v>
       </c>
       <c r="G138" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="H138" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9346,13 +9361,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="G139" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="H139" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9372,13 +9387,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G140" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="H140" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9404,7 +9419,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9424,13 +9439,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="G142" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="H142" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9450,13 +9465,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="G143" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="H143" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9476,13 +9491,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1357</v>
+        <v>1393</v>
       </c>
       <c r="G144" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="H144" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9502,13 +9517,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G145" t="s">
-        <v>989</v>
+        <v>1566</v>
       </c>
       <c r="H145" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9528,13 +9543,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="G146" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="H146" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9560,7 +9575,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9583,10 +9598,10 @@
         <v>1285</v>
       </c>
       <c r="G148" t="s">
-        <v>1562</v>
+        <v>1567</v>
       </c>
       <c r="H148" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9606,13 +9621,13 @@
         <v>1277</v>
       </c>
       <c r="F149" t="s">
-        <v>1388</v>
+        <v>1356</v>
       </c>
       <c r="G149" t="s">
-        <v>1563</v>
+        <v>1568</v>
       </c>
       <c r="H149" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9632,13 +9647,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="G150" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="H150" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9658,13 +9673,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="G151" t="s">
-        <v>1565</v>
+        <v>1570</v>
       </c>
       <c r="H151" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9687,10 +9702,10 @@
         <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1566</v>
+        <v>1571</v>
       </c>
       <c r="H152" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9710,13 +9725,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="G153" t="s">
-        <v>1567</v>
+        <v>1572</v>
       </c>
       <c r="H153" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9736,13 +9751,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G154" t="s">
-        <v>1568</v>
+        <v>1573</v>
       </c>
       <c r="H154" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9762,13 +9777,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G155" t="s">
-        <v>1569</v>
+        <v>1574</v>
       </c>
       <c r="H155" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9788,13 +9803,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G156" t="s">
-        <v>1566</v>
+        <v>1575</v>
       </c>
       <c r="H156" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9817,10 +9832,10 @@
         <v>1278</v>
       </c>
       <c r="G157" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="H157" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9843,10 +9858,10 @@
         <v>1285</v>
       </c>
       <c r="G158" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="H158" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9866,13 +9881,13 @@
         <v>1285</v>
       </c>
       <c r="F159" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G159" t="s">
-        <v>1570</v>
+        <v>1576</v>
       </c>
       <c r="H159" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9895,10 +9910,10 @@
         <v>1350</v>
       </c>
       <c r="G160" t="s">
-        <v>1571</v>
+        <v>1577</v>
       </c>
       <c r="H160" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9917,8 +9932,14 @@
       <c r="E161" t="s">
         <v>1278</v>
       </c>
+      <c r="F161" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1032</v>
+      </c>
       <c r="H161" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9938,13 +9959,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1361</v>
+        <v>1397</v>
       </c>
       <c r="G162" t="s">
-        <v>1572</v>
+        <v>1578</v>
       </c>
       <c r="H162" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9970,7 +9991,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9993,10 +10014,10 @@
         <v>1352</v>
       </c>
       <c r="G164" t="s">
-        <v>1573</v>
+        <v>1579</v>
       </c>
       <c r="H164" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10016,13 +10037,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="G165" t="s">
-        <v>1574</v>
+        <v>1580</v>
       </c>
       <c r="H165" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10045,10 +10066,10 @@
         <v>1350</v>
       </c>
       <c r="G166" t="s">
-        <v>1575</v>
+        <v>1581</v>
       </c>
       <c r="H166" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10068,13 +10089,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G167" t="s">
-        <v>1576</v>
+        <v>1582</v>
       </c>
       <c r="H167" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10094,13 +10115,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1393</v>
+        <v>1398</v>
       </c>
       <c r="G168" t="s">
-        <v>1577</v>
+        <v>1583</v>
       </c>
       <c r="H168" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10120,13 +10141,13 @@
         <v>1300</v>
       </c>
       <c r="F169" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="G169" t="s">
-        <v>1578</v>
+        <v>1584</v>
       </c>
       <c r="H169" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10146,13 +10167,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
       <c r="G170" t="s">
-        <v>1579</v>
+        <v>1585</v>
       </c>
       <c r="H170" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10172,13 +10193,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G171" t="s">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="H171" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10198,13 +10219,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1285</v>
+        <v>1343</v>
       </c>
       <c r="G172" t="s">
-        <v>1581</v>
+        <v>1587</v>
       </c>
       <c r="H172" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10227,10 +10248,10 @@
         <v>1278</v>
       </c>
       <c r="G173" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="H173" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10253,10 +10274,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1566</v>
+        <v>1571</v>
       </c>
       <c r="H174" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10276,13 +10297,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1396</v>
+        <v>1401</v>
       </c>
       <c r="G175" t="s">
-        <v>1583</v>
+        <v>1589</v>
       </c>
       <c r="H175" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10305,10 +10326,10 @@
         <v>1350</v>
       </c>
       <c r="G176" t="s">
-        <v>1584</v>
+        <v>1590</v>
       </c>
       <c r="H176" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10328,13 +10349,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="G177" t="s">
-        <v>1585</v>
+        <v>1591</v>
       </c>
       <c r="H177" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10354,13 +10375,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1397</v>
+        <v>1402</v>
       </c>
       <c r="G178" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="H178" t="s">
-        <v>1778</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10380,13 +10401,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1398</v>
+        <v>1403</v>
       </c>
       <c r="G179" t="s">
-        <v>1587</v>
+        <v>1593</v>
       </c>
       <c r="H179" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10406,13 +10427,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1399</v>
+        <v>1404</v>
       </c>
       <c r="G180" t="s">
-        <v>1588</v>
+        <v>1594</v>
       </c>
       <c r="H180" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10435,10 +10456,10 @@
         <v>1339</v>
       </c>
       <c r="G181" t="s">
-        <v>1589</v>
+        <v>1595</v>
       </c>
       <c r="H181" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10464,7 +10485,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10487,10 +10508,10 @@
         <v>1278</v>
       </c>
       <c r="G183" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="H183" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10510,13 +10531,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G184" t="s">
-        <v>1590</v>
+        <v>1596</v>
       </c>
       <c r="H184" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10539,10 +10560,10 @@
         <v>1346</v>
       </c>
       <c r="G185" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="H185" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10562,13 +10583,13 @@
         <v>1285</v>
       </c>
       <c r="F186" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G186" t="s">
-        <v>1591</v>
+        <v>1597</v>
       </c>
       <c r="H186" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10591,10 +10612,10 @@
         <v>1339</v>
       </c>
       <c r="G187" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="H187" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10620,7 +10641,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10646,7 +10667,7 @@
         <v>947</v>
       </c>
       <c r="H189" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10672,7 +10693,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10692,13 +10713,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G191" t="s">
-        <v>1592</v>
+        <v>1598</v>
       </c>
       <c r="H191" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10721,10 +10742,10 @@
         <v>1346</v>
       </c>
       <c r="G192" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="H192" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10744,13 +10765,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="G193" t="s">
-        <v>1593</v>
+        <v>1599</v>
       </c>
       <c r="H193" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10773,10 +10794,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="H194" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10802,7 +10823,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10825,10 +10846,10 @@
         <v>1285</v>
       </c>
       <c r="G196" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H196" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10854,7 +10875,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10874,7 +10895,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10897,10 +10918,10 @@
         <v>1339</v>
       </c>
       <c r="G199" t="s">
-        <v>1594</v>
+        <v>1600</v>
       </c>
       <c r="H199" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10923,10 +10944,10 @@
         <v>1343</v>
       </c>
       <c r="G200" t="s">
-        <v>1595</v>
+        <v>1601</v>
       </c>
       <c r="H200" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10949,10 +10970,10 @@
         <v>1343</v>
       </c>
       <c r="G201" t="s">
-        <v>1595</v>
+        <v>1601</v>
       </c>
       <c r="H201" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10972,13 +10993,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="G202" t="s">
-        <v>1596</v>
+        <v>1602</v>
       </c>
       <c r="H202" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11004,7 +11025,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11024,13 +11045,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1401</v>
+        <v>1406</v>
       </c>
       <c r="G204" t="s">
-        <v>1597</v>
+        <v>1603</v>
       </c>
       <c r="H204" t="s">
-        <v>1775</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11050,13 +11071,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1350</v>
+        <v>1372</v>
       </c>
       <c r="G205" t="s">
-        <v>1598</v>
+        <v>1604</v>
       </c>
       <c r="H205" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11076,13 +11097,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="G206" t="s">
-        <v>1599</v>
+        <v>1605</v>
       </c>
       <c r="H206" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11108,7 +11129,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11131,10 +11152,10 @@
         <v>1350</v>
       </c>
       <c r="G208" t="s">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="H208" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11154,13 +11175,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="G209" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="H209" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11183,10 +11204,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1602</v>
+        <v>1608</v>
       </c>
       <c r="H210" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11206,13 +11227,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1404</v>
+        <v>1409</v>
       </c>
       <c r="G211" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="H211" t="s">
-        <v>1779</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11232,13 +11253,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="G212" t="s">
-        <v>1604</v>
+        <v>1610</v>
       </c>
       <c r="H212" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11261,10 +11282,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H213" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11284,13 +11305,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="G214" t="s">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="H214" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11310,13 +11331,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G215" t="s">
-        <v>1606</v>
+        <v>1612</v>
       </c>
       <c r="H215" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11342,7 +11363,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11362,13 +11383,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="G217" t="s">
-        <v>1607</v>
+        <v>1613</v>
       </c>
       <c r="H217" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11388,13 +11409,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1405</v>
+        <v>1410</v>
       </c>
       <c r="G218" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="H218" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11414,13 +11435,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="G219" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
       <c r="H219" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11440,13 +11461,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1407</v>
+        <v>1412</v>
       </c>
       <c r="G220" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
       <c r="H220" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11472,7 +11493,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11492,13 +11513,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="G222" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="H222" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11518,13 +11539,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1409</v>
+        <v>1414</v>
       </c>
       <c r="G223" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
       <c r="H223" t="s">
-        <v>1780</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11544,13 +11565,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1410</v>
+        <v>1415</v>
       </c>
       <c r="G224" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
       <c r="H224" t="s">
-        <v>1781</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11576,7 +11597,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11602,7 +11623,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11628,7 +11649,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11648,13 +11669,13 @@
         <v>1285</v>
       </c>
       <c r="F228" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G228" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
       <c r="H228" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11674,13 +11695,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1411</v>
+        <v>1416</v>
       </c>
       <c r="G229" t="s">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="H229" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11703,10 +11724,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
       <c r="H230" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11732,7 +11753,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11755,10 +11776,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
       <c r="H232" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11781,10 +11802,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
       <c r="H233" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11804,13 +11825,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G234" t="s">
-        <v>1618</v>
+        <v>1624</v>
       </c>
       <c r="H234" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11833,10 +11854,10 @@
         <v>1342</v>
       </c>
       <c r="G235" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
       <c r="H235" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11856,13 +11877,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G236" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
       <c r="H236" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11885,10 +11906,10 @@
         <v>1341</v>
       </c>
       <c r="G237" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
       <c r="H237" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11908,13 +11929,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1412</v>
+        <v>1417</v>
       </c>
       <c r="G238" t="s">
-        <v>1622</v>
+        <v>1628</v>
       </c>
       <c r="H238" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11940,7 +11961,7 @@
         <v>968</v>
       </c>
       <c r="H239" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11960,13 +11981,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1413</v>
+        <v>1418</v>
       </c>
       <c r="G240" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
       <c r="H240" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11989,10 +12010,10 @@
         <v>1352</v>
       </c>
       <c r="G241" t="s">
-        <v>1624</v>
+        <v>1630</v>
       </c>
       <c r="H241" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12012,13 +12033,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="G242" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="H242" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12041,10 +12062,10 @@
         <v>1346</v>
       </c>
       <c r="G243" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="H243" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12064,13 +12085,13 @@
         <v>1276</v>
       </c>
       <c r="F244" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="G244" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="H244" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12093,10 +12114,10 @@
         <v>1342</v>
       </c>
       <c r="G245" t="s">
-        <v>1626</v>
+        <v>1632</v>
       </c>
       <c r="H245" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12122,7 +12143,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12142,13 +12163,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="G247" t="s">
-        <v>1627</v>
+        <v>1633</v>
       </c>
       <c r="H247" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12174,7 +12195,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12194,13 +12215,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1414</v>
+        <v>1419</v>
       </c>
       <c r="G249" t="s">
-        <v>1628</v>
+        <v>1634</v>
       </c>
       <c r="H249" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12220,13 +12241,13 @@
         <v>1279</v>
       </c>
       <c r="F250" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G250" t="s">
-        <v>1629</v>
+        <v>1635</v>
       </c>
       <c r="H250" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12246,13 +12267,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1415</v>
+        <v>1420</v>
       </c>
       <c r="G251" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
       <c r="H251" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12272,13 +12293,13 @@
         <v>1276</v>
       </c>
       <c r="F252" t="s">
-        <v>1416</v>
+        <v>1421</v>
       </c>
       <c r="G252" t="s">
-        <v>1631</v>
+        <v>1637</v>
       </c>
       <c r="H252" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12298,13 +12319,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="G253" t="s">
-        <v>1632</v>
+        <v>1638</v>
       </c>
       <c r="H253" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12330,7 +12351,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12350,13 +12371,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="G255" t="s">
-        <v>1633</v>
+        <v>1639</v>
       </c>
       <c r="H255" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12379,10 +12400,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
       <c r="H256" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12405,10 +12426,10 @@
         <v>1343</v>
       </c>
       <c r="G257" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="H257" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12428,13 +12449,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G258" t="s">
-        <v>1634</v>
+        <v>1640</v>
       </c>
       <c r="H258" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12460,7 +12481,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12483,10 +12504,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
       <c r="H260" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12506,13 +12527,13 @@
         <v>1285</v>
       </c>
       <c r="F261" t="s">
-        <v>1417</v>
+        <v>1422</v>
       </c>
       <c r="G261" t="s">
-        <v>1635</v>
+        <v>1641</v>
       </c>
       <c r="H261" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12538,7 +12559,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12558,13 +12579,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1418</v>
+        <v>1423</v>
       </c>
       <c r="G263" t="s">
-        <v>1636</v>
+        <v>1642</v>
       </c>
       <c r="H263" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12584,13 +12605,13 @@
         <v>1276</v>
       </c>
       <c r="F264" t="s">
-        <v>1419</v>
+        <v>1424</v>
       </c>
       <c r="G264" t="s">
-        <v>1637</v>
+        <v>1643</v>
       </c>
       <c r="H264" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12610,13 +12631,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="G265" t="s">
-        <v>1638</v>
+        <v>1644</v>
       </c>
       <c r="H265" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12636,13 +12657,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G266" t="s">
-        <v>1639</v>
+        <v>1645</v>
       </c>
       <c r="H266" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12662,13 +12683,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1420</v>
+        <v>1425</v>
       </c>
       <c r="G267" t="s">
-        <v>1640</v>
+        <v>1646</v>
       </c>
       <c r="H267" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12688,13 +12709,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1421</v>
+        <v>1426</v>
       </c>
       <c r="G268" t="s">
-        <v>1641</v>
+        <v>1647</v>
       </c>
       <c r="H268" t="s">
-        <v>1768</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12714,13 +12735,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G269" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
       <c r="H269" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12746,7 +12767,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12766,13 +12787,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="G271" t="s">
-        <v>1643</v>
+        <v>1649</v>
       </c>
       <c r="H271" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12792,13 +12813,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G272" t="s">
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="H272" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12818,13 +12839,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G273" t="s">
-        <v>1645</v>
+        <v>1651</v>
       </c>
       <c r="H273" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12844,13 +12865,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1423</v>
+        <v>1428</v>
       </c>
       <c r="G274" t="s">
-        <v>1646</v>
+        <v>1652</v>
       </c>
       <c r="H274" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12870,13 +12891,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1424</v>
+        <v>1429</v>
       </c>
       <c r="G275" t="s">
-        <v>1647</v>
+        <v>1653</v>
       </c>
       <c r="H275" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12896,13 +12917,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="G276" t="s">
-        <v>1648</v>
+        <v>1654</v>
       </c>
       <c r="H276" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12925,10 +12946,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H277" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12948,13 +12969,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="G278" t="s">
-        <v>1649</v>
+        <v>1655</v>
       </c>
       <c r="H278" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12974,13 +12995,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1426</v>
+        <v>1431</v>
       </c>
       <c r="G279" t="s">
-        <v>1650</v>
+        <v>1656</v>
       </c>
       <c r="H279" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13006,7 +13027,7 @@
         <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13029,7 +13050,7 @@
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13049,13 +13070,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1427</v>
+        <v>1432</v>
       </c>
       <c r="G282" t="s">
-        <v>1651</v>
+        <v>1657</v>
       </c>
       <c r="H282" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13081,7 +13102,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13101,13 +13122,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1428</v>
+        <v>1433</v>
       </c>
       <c r="G284" t="s">
-        <v>1652</v>
+        <v>1658</v>
       </c>
       <c r="H284" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13127,13 +13148,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="G285" t="s">
-        <v>1653</v>
+        <v>1659</v>
       </c>
       <c r="H285" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13153,13 +13174,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1429</v>
+        <v>1434</v>
       </c>
       <c r="G286" t="s">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="H286" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13179,13 +13200,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1430</v>
+        <v>1397</v>
       </c>
       <c r="G287" t="s">
-        <v>1655</v>
+        <v>1661</v>
       </c>
       <c r="H287" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13208,10 +13229,10 @@
         <v>1294</v>
       </c>
       <c r="G288" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="H288" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13234,10 +13255,10 @@
         <v>1285</v>
       </c>
       <c r="G289" t="s">
-        <v>1581</v>
+        <v>1662</v>
       </c>
       <c r="H289" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13257,13 +13278,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="G290" t="s">
-        <v>1656</v>
+        <v>1663</v>
       </c>
       <c r="H290" t="s">
-        <v>1768</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13283,13 +13304,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="G291" t="s">
-        <v>1657</v>
+        <v>1664</v>
       </c>
       <c r="H291" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13309,13 +13330,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="G292" t="s">
-        <v>1658</v>
+        <v>1665</v>
       </c>
       <c r="H292" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13335,13 +13356,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="G293" t="s">
-        <v>1659</v>
+        <v>1666</v>
       </c>
       <c r="H293" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13361,13 +13382,13 @@
         <v>1285</v>
       </c>
       <c r="F294" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G294" t="s">
-        <v>1591</v>
+        <v>1597</v>
       </c>
       <c r="H294" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13393,7 +13414,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13413,13 +13434,13 @@
         <v>1276</v>
       </c>
       <c r="F296" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="G296" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="H296" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13439,13 +13460,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1416</v>
+        <v>1421</v>
       </c>
       <c r="G297" t="s">
-        <v>1660</v>
+        <v>1667</v>
       </c>
       <c r="H297" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13465,13 +13486,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1423</v>
+        <v>1371</v>
       </c>
       <c r="G298" t="s">
-        <v>1661</v>
+        <v>1668</v>
       </c>
       <c r="H298" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13497,7 +13518,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13517,13 +13538,13 @@
         <v>1276</v>
       </c>
       <c r="F300" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="G300" t="s">
-        <v>1662</v>
+        <v>1669</v>
       </c>
       <c r="H300" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13543,13 +13564,13 @@
         <v>1285</v>
       </c>
       <c r="F301" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G301" t="s">
-        <v>1663</v>
+        <v>1670</v>
       </c>
       <c r="H301" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13569,13 +13590,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1413</v>
+        <v>1418</v>
       </c>
       <c r="G302" t="s">
-        <v>1664</v>
+        <v>1671</v>
       </c>
       <c r="H302" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13595,13 +13616,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1341</v>
+        <v>1276</v>
       </c>
       <c r="G303" t="s">
-        <v>1665</v>
+        <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13627,7 +13648,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13653,7 +13674,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13673,13 +13694,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="G306" t="s">
-        <v>1657</v>
+        <v>1664</v>
       </c>
       <c r="H306" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13705,7 +13726,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13728,10 +13749,10 @@
         <v>1294</v>
       </c>
       <c r="G308" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
       <c r="H308" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13757,7 +13778,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13783,7 +13804,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13809,7 +13830,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13829,13 +13850,13 @@
         <v>1285</v>
       </c>
       <c r="F312" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G312" t="s">
-        <v>1666</v>
+        <v>1672</v>
       </c>
       <c r="H312" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13861,7 +13882,7 @@
         <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13887,7 +13908,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13910,10 +13931,10 @@
         <v>1353</v>
       </c>
       <c r="G315" t="s">
-        <v>1667</v>
+        <v>1673</v>
       </c>
       <c r="H315" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13933,13 +13954,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1377</v>
+        <v>1436</v>
       </c>
       <c r="G316" t="s">
-        <v>1668</v>
+        <v>1674</v>
       </c>
       <c r="H316" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13959,13 +13980,13 @@
         <v>1276</v>
       </c>
       <c r="F317" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="G317" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="H317" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13988,10 +14009,10 @@
         <v>1343</v>
       </c>
       <c r="G318" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="H318" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14010,8 +14031,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14031,13 +14058,13 @@
         <v>1285</v>
       </c>
       <c r="F320" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="G320" t="s">
-        <v>1669</v>
+        <v>1675</v>
       </c>
       <c r="H320" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14057,13 +14084,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1370</v>
+        <v>1428</v>
       </c>
       <c r="G321" t="s">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="H321" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14083,13 +14110,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G322" t="s">
-        <v>1671</v>
+        <v>1677</v>
       </c>
       <c r="H322" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14112,10 +14139,10 @@
         <v>1341</v>
       </c>
       <c r="G323" t="s">
-        <v>1672</v>
+        <v>1678</v>
       </c>
       <c r="H323" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14135,13 +14162,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G324" t="s">
-        <v>1673</v>
+        <v>1679</v>
       </c>
       <c r="H324" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14167,7 +14194,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14193,7 +14220,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14213,13 +14240,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1432</v>
+        <v>1437</v>
       </c>
       <c r="G327" t="s">
-        <v>1674</v>
+        <v>1680</v>
       </c>
       <c r="H327" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14239,13 +14266,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1433</v>
+        <v>1375</v>
       </c>
       <c r="G328" t="s">
-        <v>1675</v>
+        <v>1681</v>
       </c>
       <c r="H328" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14265,13 +14292,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1423</v>
+        <v>1428</v>
       </c>
       <c r="G329" t="s">
-        <v>1676</v>
+        <v>1682</v>
       </c>
       <c r="H329" t="s">
-        <v>1782</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14294,10 +14321,10 @@
         <v>1278</v>
       </c>
       <c r="G330" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="H330" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14317,13 +14344,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1421</v>
+        <v>1426</v>
       </c>
       <c r="G331" t="s">
-        <v>1677</v>
+        <v>1683</v>
       </c>
       <c r="H331" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14346,10 +14373,10 @@
         <v>1285</v>
       </c>
       <c r="G332" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="H332" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14369,13 +14396,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="G333" t="s">
-        <v>1678</v>
+        <v>1684</v>
       </c>
       <c r="H333" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14401,7 +14428,7 @@
         <v>1180</v>
       </c>
       <c r="H334" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14421,13 +14448,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G335" t="s">
-        <v>1679</v>
+        <v>1685</v>
       </c>
       <c r="H335" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14447,13 +14474,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1418</v>
+        <v>1423</v>
       </c>
       <c r="G336" t="s">
-        <v>1680</v>
+        <v>1686</v>
       </c>
       <c r="H336" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14476,10 +14503,10 @@
         <v>1342</v>
       </c>
       <c r="G337" t="s">
-        <v>1681</v>
+        <v>1687</v>
       </c>
       <c r="H337" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14499,13 +14526,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="G338" t="s">
-        <v>1682</v>
+        <v>1688</v>
       </c>
       <c r="H338" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14525,13 +14552,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="G339" t="s">
-        <v>1683</v>
+        <v>1689</v>
       </c>
       <c r="H339" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14554,10 +14581,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="H340" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14577,13 +14604,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1430</v>
+        <v>1397</v>
       </c>
       <c r="G341" t="s">
-        <v>1685</v>
+        <v>1691</v>
       </c>
       <c r="H341" t="s">
-        <v>1783</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14606,10 +14633,10 @@
         <v>1346</v>
       </c>
       <c r="G342" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="H342" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14629,13 +14656,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="G343" t="s">
-        <v>1686</v>
+        <v>1692</v>
       </c>
       <c r="H343" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14655,13 +14682,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="G344" t="s">
-        <v>1687</v>
+        <v>1693</v>
       </c>
       <c r="H344" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14684,10 +14711,10 @@
         <v>1343</v>
       </c>
       <c r="G345" t="s">
-        <v>1595</v>
+        <v>1601</v>
       </c>
       <c r="H345" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14707,13 +14734,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="G346" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="H346" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14739,7 +14766,7 @@
         <v>947</v>
       </c>
       <c r="H347" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14765,7 +14792,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14791,7 +14818,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14814,10 +14841,10 @@
         <v>1346</v>
       </c>
       <c r="G350" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="H350" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14837,13 +14864,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G351" t="s">
-        <v>1645</v>
+        <v>1651</v>
       </c>
       <c r="H351" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14863,13 +14890,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="G352" t="s">
-        <v>1689</v>
+        <v>1695</v>
       </c>
       <c r="H352" t="s">
-        <v>1771</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14895,7 +14922,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14921,7 +14948,7 @@
         <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14941,13 +14968,13 @@
         <v>1285</v>
       </c>
       <c r="F355" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="G355" t="s">
-        <v>1690</v>
+        <v>1696</v>
       </c>
       <c r="H355" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14973,7 +15000,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14993,13 +15020,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="G357" t="s">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="H357" t="s">
-        <v>1784</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15022,10 +15049,10 @@
         <v>1346</v>
       </c>
       <c r="G358" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="H358" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15048,10 +15075,10 @@
         <v>1278</v>
       </c>
       <c r="G359" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="H359" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15077,7 +15104,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15097,13 +15124,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1386</v>
+        <v>1343</v>
       </c>
       <c r="G361" t="s">
-        <v>1692</v>
+        <v>1519</v>
       </c>
       <c r="H361" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15126,10 +15153,10 @@
         <v>1285</v>
       </c>
       <c r="G362" t="s">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="H362" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15149,13 +15176,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="G363" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="H363" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15175,13 +15202,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="G364" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="H364" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15201,13 +15228,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G365" t="s">
-        <v>1695</v>
+        <v>1700</v>
       </c>
       <c r="H365" t="s">
-        <v>1785</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15227,13 +15254,13 @@
         <v>1294</v>
       </c>
       <c r="F366" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G366" t="s">
-        <v>1666</v>
+        <v>1672</v>
       </c>
       <c r="H366" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15256,10 +15283,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="H367" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15282,10 +15309,10 @@
         <v>1352</v>
       </c>
       <c r="G368" t="s">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="H368" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15308,10 +15335,10 @@
         <v>1339</v>
       </c>
       <c r="G369" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="H369" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15331,13 +15358,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1443</v>
+        <v>1374</v>
       </c>
       <c r="G370" t="s">
-        <v>1697</v>
+        <v>1702</v>
       </c>
       <c r="H370" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15360,10 +15387,10 @@
         <v>1350</v>
       </c>
       <c r="G371" t="s">
-        <v>1698</v>
+        <v>1703</v>
       </c>
       <c r="H371" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15383,13 +15410,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="G372" t="s">
-        <v>1699</v>
+        <v>1704</v>
       </c>
       <c r="H372" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15409,13 +15436,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="G373" t="s">
-        <v>1700</v>
+        <v>1705</v>
       </c>
       <c r="H373" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15435,7 +15462,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15461,7 +15488,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15481,13 +15508,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="G376" t="s">
-        <v>1701</v>
+        <v>1706</v>
       </c>
       <c r="H376" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15507,13 +15534,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="G377" t="s">
-        <v>1702</v>
+        <v>1707</v>
       </c>
       <c r="H377" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15533,13 +15560,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="G378" t="s">
-        <v>1703</v>
+        <v>1708</v>
       </c>
       <c r="H378" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15559,13 +15586,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="G379" t="s">
-        <v>1704</v>
+        <v>1709</v>
       </c>
       <c r="H379" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15585,13 +15612,13 @@
         <v>1285</v>
       </c>
       <c r="F380" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G380" t="s">
-        <v>1705</v>
+        <v>1710</v>
       </c>
       <c r="H380" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15614,10 +15641,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
       <c r="H381" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15637,13 +15664,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="G382" t="s">
-        <v>1706</v>
+        <v>1711</v>
       </c>
       <c r="H382" t="s">
-        <v>1786</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15663,13 +15690,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="G383" t="s">
-        <v>1707</v>
+        <v>1712</v>
       </c>
       <c r="H383" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15689,13 +15716,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="G384" t="s">
-        <v>1708</v>
+        <v>1713</v>
       </c>
       <c r="H384" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15715,13 +15742,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G385" t="s">
-        <v>1673</v>
+        <v>1679</v>
       </c>
       <c r="H385" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15741,13 +15768,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="G386" t="s">
-        <v>1709</v>
+        <v>1714</v>
       </c>
       <c r="H386" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15770,10 +15797,10 @@
         <v>1350</v>
       </c>
       <c r="G387" t="s">
-        <v>1710</v>
+        <v>1715</v>
       </c>
       <c r="H387" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15793,13 +15820,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G388" t="s">
-        <v>1591</v>
+        <v>1597</v>
       </c>
       <c r="H388" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15819,13 +15846,13 @@
         <v>1285</v>
       </c>
       <c r="F389" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G389" t="s">
-        <v>1570</v>
+        <v>1576</v>
       </c>
       <c r="H389" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15845,13 +15872,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="G390" t="s">
-        <v>1711</v>
+        <v>1716</v>
       </c>
       <c r="H390" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15874,10 +15901,10 @@
         <v>1352</v>
       </c>
       <c r="G391" t="s">
-        <v>1712</v>
+        <v>1717</v>
       </c>
       <c r="H391" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15900,10 +15927,10 @@
         <v>1285</v>
       </c>
       <c r="G392" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H392" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15923,13 +15950,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G393" t="s">
-        <v>1713</v>
+        <v>1718</v>
       </c>
       <c r="H393" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15949,13 +15976,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G394" t="s">
-        <v>1714</v>
+        <v>1719</v>
       </c>
       <c r="H394" t="s">
-        <v>1771</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15975,13 +16002,13 @@
         <v>1285</v>
       </c>
       <c r="F395" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G395" t="s">
-        <v>1715</v>
+        <v>1720</v>
       </c>
       <c r="H395" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16001,13 +16028,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G396" t="s">
-        <v>1716</v>
+        <v>1721</v>
       </c>
       <c r="H396" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16027,13 +16054,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1430</v>
+        <v>1397</v>
       </c>
       <c r="G397" t="s">
-        <v>1655</v>
+        <v>1661</v>
       </c>
       <c r="H397" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16059,7 +16086,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16079,13 +16106,13 @@
         <v>1285</v>
       </c>
       <c r="F399" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="G399" t="s">
-        <v>1717</v>
+        <v>1722</v>
       </c>
       <c r="H399" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16105,13 +16132,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1412</v>
+        <v>1417</v>
       </c>
       <c r="G400" t="s">
-        <v>1622</v>
+        <v>1628</v>
       </c>
       <c r="H400" t="s">
-        <v>1787</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16137,7 +16164,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16160,10 +16187,10 @@
         <v>1350</v>
       </c>
       <c r="G402" t="s">
-        <v>1718</v>
+        <v>1723</v>
       </c>
       <c r="H402" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16183,13 +16210,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G403" t="s">
-        <v>1719</v>
+        <v>1724</v>
       </c>
       <c r="H403" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16209,13 +16236,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G404" t="s">
-        <v>1720</v>
+        <v>1725</v>
       </c>
       <c r="H404" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16235,13 +16262,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G405" t="s">
-        <v>1721</v>
+        <v>1726</v>
       </c>
       <c r="H405" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16267,7 +16294,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16287,13 +16314,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="G407" t="s">
-        <v>1722</v>
+        <v>1727</v>
       </c>
       <c r="H407" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16316,10 +16343,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1581</v>
+        <v>1662</v>
       </c>
       <c r="H408" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16345,7 +16372,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16371,7 +16398,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16391,13 +16418,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G411" t="s">
-        <v>1723</v>
+        <v>1728</v>
       </c>
       <c r="H411" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16420,10 +16447,10 @@
         <v>1285</v>
       </c>
       <c r="G412" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H412" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16443,13 +16470,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G413" t="s">
-        <v>1673</v>
+        <v>1679</v>
       </c>
       <c r="H413" t="s">
-        <v>1773</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16469,13 +16496,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="G414" t="s">
-        <v>1724</v>
+        <v>1729</v>
       </c>
       <c r="H414" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16495,13 +16522,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="G415" t="s">
-        <v>1725</v>
+        <v>1730</v>
       </c>
       <c r="H415" t="s">
-        <v>1788</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16521,10 +16548,10 @@
         <v>1285</v>
       </c>
       <c r="G416" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="H416" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16547,10 +16574,10 @@
         <v>1294</v>
       </c>
       <c r="G417" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="H417" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16573,10 +16600,10 @@
         <v>1338</v>
       </c>
       <c r="G418" t="s">
-        <v>1726</v>
+        <v>1731</v>
       </c>
       <c r="H418" t="s">
-        <v>1775</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16596,13 +16623,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G419" t="s">
-        <v>1673</v>
+        <v>1679</v>
       </c>
       <c r="H419" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16625,10 +16652,10 @@
         <v>1338</v>
       </c>
       <c r="G420" t="s">
-        <v>1727</v>
+        <v>1732</v>
       </c>
       <c r="H420" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16648,13 +16675,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1417</v>
+        <v>1422</v>
       </c>
       <c r="G421" t="s">
-        <v>1728</v>
+        <v>1733</v>
       </c>
       <c r="H421" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16674,13 +16701,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G422" t="s">
-        <v>1673</v>
+        <v>1679</v>
       </c>
       <c r="H422" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16706,7 +16733,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16732,7 +16759,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16752,13 +16779,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1423</v>
+        <v>1428</v>
       </c>
       <c r="G425" t="s">
-        <v>1729</v>
+        <v>1734</v>
       </c>
       <c r="H425" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16778,13 +16805,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="G426" t="s">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="H426" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16807,7 +16834,7 @@
         <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16830,10 +16857,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
       <c r="H428" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16853,7 +16880,7 @@
         <v>1285</v>
       </c>
       <c r="H429" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16873,13 +16900,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G430" t="s">
-        <v>1731</v>
+        <v>1736</v>
       </c>
       <c r="H430" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16899,13 +16926,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="G431" t="s">
-        <v>1732</v>
+        <v>1737</v>
       </c>
       <c r="H431" t="s">
-        <v>1789</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16931,7 +16958,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16951,13 +16978,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="G433" t="s">
-        <v>1733</v>
+        <v>1738</v>
       </c>
       <c r="H433" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16980,10 +17007,10 @@
         <v>1339</v>
       </c>
       <c r="G434" t="s">
-        <v>1734</v>
+        <v>1739</v>
       </c>
       <c r="H434" t="s">
-        <v>1785</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17003,13 +17030,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1454</v>
+        <v>1458</v>
       </c>
       <c r="G435" t="s">
-        <v>1735</v>
+        <v>1740</v>
       </c>
       <c r="H435" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17032,10 +17059,10 @@
         <v>1341</v>
       </c>
       <c r="G436" t="s">
-        <v>1736</v>
+        <v>1741</v>
       </c>
       <c r="H436" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17054,14 +17081,8 @@
       <c r="E437" t="s">
         <v>1294</v>
       </c>
-      <c r="F437" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G437" t="s">
-        <v>1737</v>
-      </c>
       <c r="H437" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17087,7 +17108,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17110,10 +17131,10 @@
         <v>1350</v>
       </c>
       <c r="G439" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="H439" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17133,13 +17154,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G440" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="H440" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17159,13 +17180,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1455</v>
+        <v>1391</v>
       </c>
       <c r="G441" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="H441" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17185,13 +17206,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G442" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="H442" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17211,13 +17232,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1377</v>
+        <v>1339</v>
       </c>
       <c r="G443" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="H443" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17240,10 +17261,10 @@
         <v>1339</v>
       </c>
       <c r="G444" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="H444" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17263,13 +17284,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="G445" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="H445" t="s">
-        <v>1790</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17289,13 +17310,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="G446" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="H446" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17318,10 +17339,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="H447" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17344,10 +17365,10 @@
         <v>1343</v>
       </c>
       <c r="G448" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="H448" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17367,13 +17388,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="G449" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="H449" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17399,7 +17420,7 @@
         <v>968</v>
       </c>
       <c r="H450" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17425,7 +17446,7 @@
         <v>968</v>
       </c>
       <c r="H451" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17448,10 +17469,10 @@
         <v>1350</v>
       </c>
       <c r="G452" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="H452" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17471,13 +17492,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="G453" t="s">
-        <v>1749</v>
+        <v>1753</v>
       </c>
       <c r="H453" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17497,13 +17518,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="G454" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="H454" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17523,13 +17544,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1372</v>
+        <v>1462</v>
       </c>
       <c r="G455" t="s">
-        <v>1751</v>
+        <v>1755</v>
       </c>
       <c r="H455" t="s">
-        <v>1782</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17549,13 +17570,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="G456" t="s">
-        <v>1752</v>
+        <v>1756</v>
       </c>
       <c r="H456" t="s">
-        <v>1780</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17575,13 +17596,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="G457" t="s">
-        <v>1753</v>
+        <v>1757</v>
       </c>
       <c r="H457" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17607,7 +17628,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1791</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17627,13 +17648,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1460</v>
+        <v>1372</v>
       </c>
       <c r="G459" t="s">
-        <v>1754</v>
+        <v>1758</v>
       </c>
       <c r="H459" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17656,10 +17677,10 @@
         <v>1341</v>
       </c>
       <c r="G460" t="s">
-        <v>1755</v>
+        <v>1759</v>
       </c>
       <c r="H460" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17679,13 +17700,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G461" t="s">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="H461" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17711,7 +17732,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17731,13 +17752,13 @@
         <v>1336</v>
       </c>
       <c r="F463" t="s">
-        <v>1294</v>
+        <v>1358</v>
       </c>
       <c r="G463" t="s">
-        <v>1616</v>
+        <v>1761</v>
       </c>
       <c r="H463" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/plsa-partial-ner-w2v-money.xlsx
+++ b/Results/Categorization/plsa-partial-ner-w2v-money.xlsx
@@ -4471,7 +4471,7 @@
     <t>menu|worth</t>
   </si>
   <si>
-    <t>food|$6!-</t>
+    <t>food|$6</t>
   </si>
   <si>
     <t>great|dish</t>
@@ -4558,7 +4558,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20!-|$3!-</t>
+    <t>toppings|$20|$3</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4621,7 +4621,7 @@
     <t>moules|lobster|ravioli</t>
   </si>
   <si>
-    <t>price|$8.00!-</t>
+    <t>price|$8.00</t>
   </si>
   <si>
     <t>price|wine|well|always</t>
@@ -4762,7 +4762,7 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>food|menu|$18!-</t>
+    <t>food|menu|$18</t>
   </si>
   <si>
     <t>service|great|price|food</t>
@@ -4771,7 +4771,7 @@
     <t>atmosphere|wait</t>
   </si>
   <si>
-    <t>price|reasonable|dish|$3-6!-</t>
+    <t>price|reasonable|dish|$3-6</t>
   </si>
   <si>
     <t>great|well</t>
@@ -4828,7 +4828,7 @@
     <t>price|restaurant|wine|menu</t>
   </si>
   <si>
-    <t>wine|$70!-|$30!-</t>
+    <t>wine|$70|$30</t>
   </si>
   <si>
     <t>service|price|would</t>
@@ -4936,7 +4936,7 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|$7!-</t>
+    <t>like|$7</t>
   </si>
   <si>
     <t>seats|wall|benches</t>
@@ -4957,7 +4957,7 @@
     <t>good|price|though|even|food</t>
   </si>
   <si>
-    <t>good|price|though|$24!-</t>
+    <t>good|price|though|$24</t>
   </si>
   <si>
     <t>special|wait</t>
@@ -4966,7 +4966,7 @@
     <t>food|nice|wait</t>
   </si>
   <si>
-    <t>great|$10!-</t>
+    <t>great|$10</t>
   </si>
   <si>
     <t>price|wine</t>
@@ -5044,7 +5044,7 @@
     <t>place|even|well</t>
   </si>
   <si>
-    <t>great|like|100 dollar!-</t>
+    <t>great|like|100 dollar</t>
   </si>
   <si>
     <t>great|worth</t>
@@ -5056,13 +5056,13 @@
     <t>price|food</t>
   </si>
   <si>
-    <t>staff|wait|$*!-</t>
+    <t>staff|wait|$*</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50!-</t>
+    <t>great|great|$8.50</t>
   </si>
   <si>
     <t>good|price|make|reasonable</t>
@@ -5161,16 +5161,16 @@
     <t>price|food|nice|decor|reasonable</t>
   </si>
   <si>
-    <t>sushi|$20!-</t>
-  </si>
-  <si>
-    <t>price|$15!-</t>
+    <t>sushi|$20</t>
+  </si>
+  <si>
+    <t>price|$15</t>
   </si>
   <si>
     <t>restaurant|really</t>
   </si>
   <si>
-    <t>good|though|$60!-</t>
+    <t>good|though|$60</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5185,19 +5185,19 @@
     <t>though|restaurant|nice</t>
   </si>
   <si>
-    <t>dinner|$400.00!-</t>
+    <t>dinner|$400.00</t>
   </si>
   <si>
     <t>nice|really</t>
   </si>
   <si>
-    <t>plate|guacamole|$11!-</t>
+    <t>plate|guacamole|$11</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8!-</t>
+    <t>water|table|voss|bottles|water|piece|$8</t>
   </si>
   <si>
     <t>good|price|friendly|food</t>
@@ -5221,10 +5221,10 @@
     <t>nice|atmosphere|make</t>
   </si>
   <si>
-    <t>service|price|dish|$10!-</t>
-  </si>
-  <si>
-    <t>wine|dinner|$500!-</t>
+    <t>service|price|dish|$10</t>
+  </si>
+  <si>
+    <t>wine|dinner|$500</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5239,13 +5239,13 @@
     <t>environment|lot|guys|trophy|wives|escorts</t>
   </si>
   <si>
-    <t>service|$500!-</t>
-  </si>
-  <si>
-    <t>drinks|$14!-</t>
-  </si>
-  <si>
-    <t>would|dinner|$55!-</t>
+    <t>service|$500</t>
+  </si>
+  <si>
+    <t>drinks|$14</t>
+  </si>
+  <si>
+    <t>would|dinner|$55</t>
   </si>
   <si>
     <t>good|food|would|dinner</t>
@@ -5257,10 +5257,10 @@
     <t>restaurant|never</t>
   </si>
   <si>
-    <t>place|price|restaurant|would|$25!-</t>
-  </si>
-  <si>
-    <t>place|food|$!-</t>
+    <t>place|price|restaurant|would|$25</t>
+  </si>
+  <si>
+    <t>place|food|$</t>
   </si>
   <si>
     <t>worth</t>
@@ -5269,16 +5269,16 @@
     <t>place|dinner</t>
   </si>
   <si>
-    <t>stone|bowl|$2!-</t>
-  </si>
-  <si>
-    <t>menu|$29!-</t>
+    <t>stone|bowl|$2</t>
+  </si>
+  <si>
+    <t>menu|$29</t>
   </si>
   <si>
     <t>great|good|price|reasonable</t>
   </si>
   <si>
-    <t>service|rude|even|well|$500!-</t>
+    <t>service|rude|even|well|$500</t>
   </si>
   <si>
     <t>service|great|good|salad</t>
@@ -5287,13 +5287,13 @@
     <t>good|price|food|would</t>
   </si>
   <si>
-    <t>restaurant|never|$24!-</t>
+    <t>restaurant|never|$24</t>
   </si>
   <si>
     <t>menu|would|reasonable</t>
   </si>
   <si>
-    <t>service|$60!-</t>
+    <t>service|$60</t>
   </si>
   <si>
     <t>place|price</t>
